--- a/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P12_3_R-Provincia-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03242757186264861</v>
+        <v>0.03172538899523777</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.07430118316567239</v>
+        <v>0.07654834331105656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0804553336211821</v>
+        <v>0.08386837626410111</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.04300410144608791</v>
+        <v>0.04020958980239868</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2120970041531026</v>
+        <v>0.2147242756222202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1351759350546702</v>
+        <v>0.1349188789485342</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.004469040486707914</v>
+        <v>0.004610797098844893</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.04280704342991445</v>
+        <v>0.04315605232297903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1569108046472703</v>
+        <v>0.1578553567133451</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1192600202546403</v>
+        <v>0.1197983542116767</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.002214022166192941</v>
+        <v>0.002233699435969837</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08745393476335253</v>
+        <v>0.08674878970213426</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1465263401977548</v>
+        <v>0.1543344008266905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1606058240717375</v>
+        <v>0.163260830790417</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.1078797659356299</v>
+        <v>0.1042034643183848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3275637223833328</v>
+        <v>0.3295386711083503</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2289206582753642</v>
+        <v>0.2280062052222621</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02141372971860575</v>
+        <v>0.02124416230538393</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08284151798894845</v>
+        <v>0.08735216564402083</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2228119218470903</v>
+        <v>0.2236302124562362</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1813894704509936</v>
+        <v>0.1814416267700458</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.01018676220427665</v>
+        <v>0.01026380495747856</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.04116907626031504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.05638709986220153</v>
+        <v>0.05638709986220154</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1391057261013736</v>
@@ -817,7 +817,7 @@
         <v>0.07581830873279873</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.08296030071748842</v>
+        <v>0.0829603007174884</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.110074575817804</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.0588035362767273</v>
+        <v>0.05771406678075647</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04946157554229234</v>
+        <v>0.05004949639866058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02620264382529698</v>
+        <v>0.02607234112160771</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0351419092887609</v>
+        <v>0.03771536602623905</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1101947941438618</v>
+        <v>0.1144354269972822</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08630142971321132</v>
+        <v>0.08586680562095808</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.05332600673477742</v>
+        <v>0.05358781581809915</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06392443845806264</v>
+        <v>0.06199242565505569</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09303860084311541</v>
+        <v>0.08996242761150523</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07362826223251515</v>
+        <v>0.0733779790729797</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04426597160172507</v>
+        <v>0.04438205811868957</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05548385423505232</v>
+        <v>0.05520042292987932</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1116329935380436</v>
+        <v>0.1077391742569413</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09916430815351446</v>
+        <v>0.09995129506962534</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06262768405092649</v>
+        <v>0.06162714368737775</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08611404912895561</v>
+        <v>0.08644393078823716</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1720105237894905</v>
+        <v>0.1705742828560235</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1439029978818241</v>
+        <v>0.1413539879103878</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1026436276341559</v>
+        <v>0.1023849283174148</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1053639461710699</v>
+        <v>0.1045266523697238</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1311344140138915</v>
+        <v>0.1303875053244397</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1125100836191128</v>
+        <v>0.112690150246855</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0740409339670873</v>
+        <v>0.07459520655809015</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08635394569053424</v>
+        <v>0.08819282526323471</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>0.04608658650504857</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.1219375711170246</v>
+        <v>0.1219375711170247</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.01282018176781367</v>
@@ -979,37 +979,37 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03529154261106887</v>
+        <v>0.03569072322711391</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03107144821701971</v>
+        <v>0.02922978825250014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05243659320150024</v>
+        <v>0.0517055891093659</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008098348319418214</v>
+        <v>0.005977613345686032</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08021486006753374</v>
+        <v>0.08184262754266552</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02543138834303266</v>
+        <v>0.02578849322288361</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09723710343749285</v>
+        <v>0.0970402077563341</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.005590121945243969</v>
+        <v>0.005583948159869347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06573617018010942</v>
+        <v>0.06553825222887961</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03205325468455431</v>
+        <v>0.03326580104263827</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.08252001151065244</v>
+        <v>0.08211395224583225</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03020614579515853</v>
+        <v>0.03231915083440987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0879532796297289</v>
+        <v>0.08596585762313851</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07541787195122664</v>
+        <v>0.07988097800501553</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1035392152930965</v>
+        <v>0.1027994872012118</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03610993771099481</v>
+        <v>0.03532127002500456</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1545447903824577</v>
+        <v>0.1521835942935377</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07135109544978363</v>
+        <v>0.07213171233278756</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1542986927090671</v>
+        <v>0.1522156283725642</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02462408251241296</v>
+        <v>0.0238265871675394</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1107100953494568</v>
+        <v>0.109451662924777</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06585716901323103</v>
+        <v>0.06673546984669143</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1185910768820537</v>
+        <v>0.1193893516780766</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.07021960834411806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.05768335063375272</v>
+        <v>0.05768335063375271</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.03989579010562171</v>
@@ -1101,7 +1101,7 @@
         <v>0.1233294567948755</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.09085921792416853</v>
+        <v>0.09085921792416854</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002776734246131262</v>
+        <v>0.002800056740109815</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06891381795454916</v>
+        <v>0.07165515363315511</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04724321447459406</v>
+        <v>0.0479415609674515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03378135928497312</v>
+        <v>0.03294020891952035</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02268347654650904</v>
+        <v>0.02362491082906547</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1704211955859351</v>
+        <v>0.1735181698378598</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.135334945211792</v>
+        <v>0.1405473296876723</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09712419845109027</v>
+        <v>0.09283649049977309</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01577916020935137</v>
+        <v>0.01631573909652844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1307829973659485</v>
+        <v>0.1332978223931513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1001042732123345</v>
+        <v>0.1017573649244243</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.07079369532504935</v>
+        <v>0.07299468762476394</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0289752145504879</v>
+        <v>0.03268896632963113</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1357791378718216</v>
+        <v>0.1352641424579083</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09884986169964421</v>
+        <v>0.1006044480134832</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09622447158958272</v>
+        <v>0.09992083056682864</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06524128547778904</v>
+        <v>0.06381015404761577</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.257368640565412</v>
+        <v>0.2616771988665682</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2189247632065496</v>
+        <v>0.2213336723109799</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1572513261542372</v>
+        <v>0.1533922354084352</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04071404798450812</v>
+        <v>0.04081699663078833</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.186299029093288</v>
+        <v>0.1865236283174123</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1484720007432169</v>
+        <v>0.1526128151875505</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1173748787538811</v>
+        <v>0.115010910810619</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.2352481237343153</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.1542259551240764</v>
+        <v>0.1542259551240763</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.1449971110279026</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0754099992407731</v>
+        <v>0.07789739974954785</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02528541168751044</v>
+        <v>0.02329343695195559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.104109934286487</v>
+        <v>0.1026125896193671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1224098909817455</v>
+        <v>0.1199709446624894</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1260577952550276</v>
+        <v>0.1291977448454449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09000476902692554</v>
+        <v>0.08849531498046266</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1758542862207229</v>
+        <v>0.176659412427737</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1211852323775622</v>
+        <v>0.124466900379891</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1146375690475885</v>
+        <v>0.1124389628000197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0664919855440318</v>
+        <v>0.06520885614172138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1562898552987788</v>
+        <v>0.1548044956298931</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1284850346902978</v>
+        <v>0.1318182650466237</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1605266108772934</v>
+        <v>0.1615331372021128</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.08924493689495314</v>
+        <v>0.08561067263494006</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2022663641408592</v>
+        <v>0.1987996218216707</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2110694717996819</v>
+        <v>0.2063767236280969</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2361779478792193</v>
+        <v>0.2339203661805773</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1878710129042997</v>
+        <v>0.1804241534321631</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2930242237859874</v>
+        <v>0.2915178264781707</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1914685507006726</v>
+        <v>0.1967625068500024</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1829760617224491</v>
+        <v>0.1809640777431494</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1235088338611592</v>
+        <v>0.1232924810235454</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2311256756241582</v>
+        <v>0.2311907225172107</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1890197887759437</v>
+        <v>0.1873705408242223</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.1348034738986501</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1326285124420248</v>
+        <v>0.1326285124420247</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.01838386625137652</v>
@@ -1387,37 +1387,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05506346522995624</v>
+        <v>0.05312872585143664</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04139309606673704</v>
+        <v>0.04031735928400774</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05520898179233404</v>
+        <v>0.05398164441076404</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.01521118709315116</v>
+        <v>0.01744962320662968</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.07060698711985715</v>
+        <v>0.07495753859628419</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.09795783485783574</v>
+        <v>0.09404432382091214</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1044965588918239</v>
+        <v>0.1051615948781263</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.009085222719159942</v>
+        <v>0.009404422747531145</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.07231932614634078</v>
+        <v>0.07222666840243085</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07549277571175214</v>
+        <v>0.07488222877893591</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08548832529296181</v>
+        <v>0.08630410532282114</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01997550417872252</v>
+        <v>0.01476295366946066</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1219755021669765</v>
+        <v>0.1213868465522171</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1014913866586208</v>
+        <v>0.09948500574541308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1048843240988978</v>
+        <v>0.1057260149961382</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.05797147442708497</v>
+        <v>0.05915847296551417</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1493245357404639</v>
+        <v>0.1458396987091866</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1856239623180269</v>
+        <v>0.1849503520639621</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1624066602583663</v>
+        <v>0.1642988375920051</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0334108935271953</v>
+        <v>0.03503220659169393</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1209792559440131</v>
+        <v>0.1193285765232285</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1317660473381502</v>
+        <v>0.1267713056607001</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1259382263730283</v>
+        <v>0.1251091376708571</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02998204345865343</v>
+        <v>0.02777609565659079</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04094546427709383</v>
+        <v>0.04131589437253098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05997540450196142</v>
+        <v>0.05794370582584112</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1191228187308449</v>
+        <v>0.119625039526802</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03637994530859836</v>
+        <v>0.03685967428136083</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06119749591857101</v>
+        <v>0.06079170405999558</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08767330334625059</v>
+        <v>0.0822440205537416</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1599494862583679</v>
+        <v>0.1606634086886607</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03743980684401409</v>
+        <v>0.03646803095024694</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.05618282815366978</v>
+        <v>0.05524925712192562</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.07903989829273289</v>
+        <v>0.0786709505109863</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1473496742919906</v>
+        <v>0.1487465994761829</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0644039931986304</v>
+        <v>0.06233871820562911</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.07701985140231324</v>
+        <v>0.07857866098319952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1033522973463663</v>
+        <v>0.1016503954262039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1782158402953546</v>
+        <v>0.1823310838462056</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07083591740267027</v>
+        <v>0.07322208758404271</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.106265835458907</v>
+        <v>0.1058997836784046</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1357124606870746</v>
+        <v>0.1340364233720832</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2143672587027408</v>
+        <v>0.2118845683193058</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06128428570866166</v>
+        <v>0.06086323468412715</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08586697036204834</v>
+        <v>0.08415186041906023</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1132525296257118</v>
+        <v>0.1127856547782442</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1880270000840013</v>
+        <v>0.1867817261626396</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.09406742873325594</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.2284905551720635</v>
+        <v>0.2284905551720636</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.09937741954473954</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.05389388953362494</v>
+        <v>0.05237264449179226</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.08295934608182963</v>
+        <v>0.08180461281117665</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05225000902375808</v>
+        <v>0.05244811344272043</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1452290505427222</v>
+        <v>0.1475026763366926</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.104780549051906</v>
+        <v>0.1042407835530673</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1011980994684579</v>
+        <v>0.1008387786474771</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.07580774179556569</v>
+        <v>0.07457734027747354</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2050873905746056</v>
+        <v>0.2031711012676565</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.08595465967292196</v>
+        <v>0.08597521641629587</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1002033836352047</v>
+        <v>0.09983770273676788</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.06734372236098958</v>
+        <v>0.06880556819327495</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1837798777943597</v>
+        <v>0.182612842915049</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.09058621623684092</v>
+        <v>0.09101819766239722</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1289188240808051</v>
+        <v>0.1297322332246376</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0897515957469245</v>
+        <v>0.08837605494825229</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1994226613894164</v>
+        <v>0.1976124054094048</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1545687950605496</v>
+        <v>0.1518193430903826</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.149904413018926</v>
+        <v>0.1520251951171495</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.117362020471554</v>
+        <v>0.1170753301234524</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2528275520150093</v>
+        <v>0.2527942162557946</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1169456516909303</v>
+        <v>0.1161985008821741</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1347427680761602</v>
+        <v>0.1310752254746342</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.09545268566658138</v>
+        <v>0.09897952541864605</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2187869277544372</v>
+        <v>0.2202317031313787</v>
       </c>
     </row>
     <row r="28">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.04347079510922459</v>
+        <v>0.04311919240961611</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.07131369729287801</v>
+        <v>0.07197368829650015</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.06517420310489319</v>
+        <v>0.0652781056160829</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.09544437701829278</v>
+        <v>0.09516980039803112</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07630781500932482</v>
+        <v>0.07464912022895212</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1218722997216838</v>
+        <v>0.1221262719100681</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1067075176426601</v>
+        <v>0.1060105785833267</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1374014502238998</v>
+        <v>0.1370951098210079</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.06151477481106755</v>
+        <v>0.06140327427333837</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.09987682751577415</v>
+        <v>0.09982736209948989</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.08933909286287554</v>
+        <v>0.08859135797288953</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1189495062954226</v>
+        <v>0.1198160033536074</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05878697006560134</v>
+        <v>0.05893917124732632</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.09135638670947459</v>
+        <v>0.09042814050316984</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.08345201846003837</v>
+        <v>0.08261559851305625</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1159597122811686</v>
+        <v>0.1168100919059388</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.09491238670497443</v>
+        <v>0.09362382835817423</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1451936422194225</v>
+        <v>0.1446609208203272</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1303490909521384</v>
+        <v>0.129164080107258</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.156993576562415</v>
+        <v>0.1564296825999885</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.07437778645193248</v>
+        <v>0.07452005113067418</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1152419119481012</v>
+        <v>0.114866001045333</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1029315984989935</v>
+        <v>0.1034987483551263</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.133926100006545</v>
+        <v>0.134167952996326</v>
       </c>
     </row>
     <row r="31">
@@ -2144,38 +2144,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8853</v>
+        <v>8661</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>21899</v>
+        <v>22562</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>23555</v>
+        <v>24554</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>11217</v>
+        <v>10488</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>60704</v>
+        <v>61456</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>39026</v>
+        <v>38951</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1412</v>
+        <v>1457</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>22852</v>
+        <v>23039</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>91157</v>
+        <v>91706</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>69347</v>
+        <v>69660</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="7">
@@ -2186,38 +2186,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23876</v>
+        <v>23683</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43187</v>
+        <v>45488</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>47021</v>
+        <v>47799</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>28139</v>
+        <v>27180</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>93752</v>
+        <v>94317</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>66090</v>
+        <v>65826</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6768</v>
+        <v>6714</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44225</v>
+        <v>46633</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>129442</v>
+        <v>129917</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>105474</v>
+        <v>105504</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>6468</v>
+        <v>6517</v>
       </c>
     </row>
     <row r="8">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>28995</v>
+        <v>28457</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>24935</v>
+        <v>25231</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13139</v>
+        <v>13073</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>18648</v>
+        <v>20014</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>55533</v>
+        <v>57670</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>45116</v>
+        <v>44889</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>27783</v>
+        <v>27920</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>34888</v>
+        <v>33834</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>92762</v>
+        <v>89695</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>75608</v>
+        <v>75351</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>45259</v>
+        <v>45378</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>59724</v>
+        <v>59419</v>
       </c>
     </row>
     <row r="11">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>55043</v>
+        <v>53123</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>49991</v>
+        <v>50387</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>31403</v>
+        <v>30902</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>45696</v>
+        <v>45871</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>86685</v>
+        <v>85961</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>75229</v>
+        <v>73896</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>53478</v>
+        <v>53343</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>57505</v>
+        <v>57048</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>130744</v>
+        <v>129999</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>115536</v>
+        <v>115721</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>75702</v>
+        <v>76269</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>92953</v>
+        <v>94932</v>
       </c>
     </row>
     <row r="12">
@@ -2503,37 +2503,37 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>11436</v>
+        <v>11565</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9898</v>
+        <v>9312</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16570</v>
+        <v>16339</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2716</v>
+        <v>2005</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>27355</v>
+        <v>27910</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8481</v>
+        <v>8600</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34545</v>
+        <v>34475</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>3657</v>
+        <v>3653</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>43719</v>
+        <v>43587</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20900</v>
+        <v>21691</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>55392</v>
+        <v>55120</v>
       </c>
     </row>
     <row r="15">
@@ -2544,40 +2544,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9631</v>
+        <v>10305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28501</v>
+        <v>27857</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>24025</v>
+        <v>25447</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32718</v>
+        <v>32484</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12112</v>
+        <v>11847</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>52703</v>
+        <v>51898</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23794</v>
+        <v>24054</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>54817</v>
+        <v>54077</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>16111</v>
+        <v>15589</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>73630</v>
+        <v>72793</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>42942</v>
+        <v>43514</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>79605</v>
+        <v>80141</v>
       </c>
     </row>
     <row r="16">
@@ -2680,40 +2680,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>25706</v>
+        <v>26729</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>17478</v>
+        <v>17737</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>12492</v>
+        <v>12181</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8426</v>
+        <v>8776</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>66113</v>
+        <v>67315</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52294</v>
+        <v>54308</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40863</v>
+        <v>39059</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>11521</v>
+        <v>11913</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>99520</v>
+        <v>101434</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>75715</v>
+        <v>76966</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>55964</v>
+        <v>57704</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>10393</v>
+        <v>11725</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>50648</v>
+        <v>50456</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>36571</v>
+        <v>37220</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35583</v>
+        <v>36950</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24234</v>
+        <v>23703</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>99844</v>
+        <v>101515</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>84593</v>
+        <v>85524</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>66160</v>
+        <v>64537</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>29726</v>
+        <v>29802</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>141766</v>
+        <v>141937</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>112299</v>
+        <v>115431</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>92787</v>
+        <v>90918</v>
       </c>
     </row>
     <row r="20">
@@ -2860,40 +2860,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>15331</v>
+        <v>15837</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5376</v>
+        <v>4953</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21990</v>
+        <v>21674</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>25175</v>
+        <v>24674</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>26178</v>
+        <v>26830</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>19764</v>
+        <v>19433</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>38439</v>
+        <v>38615</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27479</v>
+        <v>28223</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>47113</v>
+        <v>46210</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>28738</v>
+        <v>28184</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>67175</v>
+        <v>66536</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>55559</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="23">
@@ -2904,40 +2904,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>32636</v>
+        <v>32841</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18975</v>
+        <v>18202</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>42723</v>
+        <v>41991</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>43410</v>
+        <v>42444</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>49047</v>
+        <v>48578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>41255</v>
+        <v>39620</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>64051</v>
+        <v>63722</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43415</v>
+        <v>44616</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>75199</v>
+        <v>74372</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>53382</v>
+        <v>53288</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>99340</v>
+        <v>99368</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>81735</v>
+        <v>81022</v>
       </c>
     </row>
     <row r="24">
@@ -3043,37 +3043,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15086</v>
+        <v>14556</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>10891</v>
+        <v>10608</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>14919</v>
+        <v>14587</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>4231</v>
+        <v>4854</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>19705</v>
+        <v>20919</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26754</v>
+        <v>25685</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>27561</v>
+        <v>27736</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>4987</v>
+        <v>5163</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>39997</v>
+        <v>39946</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>40482</v>
+        <v>40155</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>45649</v>
+        <v>46085</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5410</v>
+        <v>3998</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33419</v>
+        <v>33258</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>26705</v>
+        <v>26177</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>28343</v>
+        <v>28570</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>16124</v>
+        <v>16455</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>41673</v>
+        <v>40701</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>50697</v>
+        <v>50513</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>42835</v>
+        <v>43334</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18341</v>
+        <v>19231</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>66909</v>
+        <v>65996</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>70658</v>
+        <v>67980</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>67248</v>
+        <v>66806</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18440</v>
+        <v>17083</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>27138</v>
+        <v>27384</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39377</v>
+        <v>38043</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>85731</v>
+        <v>86093</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>23218</v>
+        <v>23525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>42402</v>
+        <v>42121</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>60497</v>
+        <v>56750</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>123490</v>
+        <v>124041</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>46921</v>
+        <v>45703</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>76165</v>
+        <v>74899</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>106434</v>
+        <v>105937</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>219808</v>
+        <v>221892</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>39610</v>
+        <v>38340</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>51048</v>
+        <v>52081</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>67857</v>
+        <v>66739</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>128260</v>
+        <v>131221</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>45209</v>
+        <v>46732</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>73629</v>
+        <v>73375</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>93645</v>
+        <v>92488</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>165504</v>
+        <v>163587</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>76804</v>
+        <v>76277</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>116406</v>
+        <v>114081</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>152504</v>
+        <v>151875</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>280488</v>
+        <v>278631</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>40086</v>
+        <v>38955</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>64368</v>
+        <v>63472</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>40517</v>
+        <v>40671</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>115903</v>
+        <v>117718</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>82097</v>
+        <v>81674</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>83265</v>
+        <v>82969</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>62630</v>
+        <v>61613</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>170496</v>
+        <v>168902</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>131279</v>
+        <v>131310</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>160194</v>
+        <v>159609</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>107858</v>
+        <v>110200</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>299451</v>
+        <v>297550</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>67378</v>
+        <v>67699</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>100028</v>
+        <v>100659</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>69597</v>
+        <v>68531</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>159154</v>
+        <v>157709</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>121106</v>
+        <v>118952</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>123340</v>
+        <v>125085</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>96961</v>
+        <v>96724</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>210183</v>
+        <v>210156</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>178612</v>
+        <v>177471</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>215412</v>
+        <v>209548</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>152878</v>
+        <v>158527</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>356492</v>
+        <v>358846</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>142434</v>
+        <v>141282</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>243979</v>
+        <v>246237</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>220880</v>
+        <v>221233</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>336816</v>
+        <v>335847</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>257859</v>
+        <v>252254</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>432924</v>
+        <v>433826</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>377476</v>
+        <v>375010</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>512743</v>
+        <v>511600</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>409426</v>
+        <v>408684</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>696489</v>
+        <v>696144</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>618812</v>
+        <v>613633</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>863650</v>
+        <v>869941</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>192618</v>
+        <v>193117</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>312549</v>
+        <v>309373</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>282825</v>
+        <v>279991</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>409213</v>
+        <v>412214</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>320728</v>
+        <v>316373</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>515768</v>
+        <v>513875</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>461107</v>
+        <v>456915</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>585855</v>
+        <v>583751</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>495039</v>
+        <v>495986</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>803637</v>
+        <v>801016</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>712962</v>
+        <v>716890</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>972390</v>
+        <v>974146</v>
       </c>
     </row>
     <row r="40">
